--- a/data/stimuli.xlsx
+++ b/data/stimuli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bagjuhyeon/Documents/WorkSpace/sentence-corpus-prediction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A9A00E-6BEC-4945-98A6-EF64EA484337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E032FAD6-8040-994A-AD4B-92B36EF89FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="620" windowWidth="19200" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="800" windowWidth="15120" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stimuli" sheetId="1" r:id="rId1"/>
@@ -20,31 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Sentence</t>
   </si>
   <si>
-    <t>멀리 배웅하던 길 그자리 서서 그곳에 서서 그대가 사랑한 이 계절의 오고감을 봅니다. 아무 노력 말아요. 버거울 땐 언제든 나의 이름을 불러요. 꽃잎이 번지면 그대 새로운 봄이 오겠죠. 시간이 걸려도 그대 반드시 행복 해지세요. 그 다음 말엔</t>
-  </si>
-  <si>
-    <t>챔피언 소리지르는 니가 챔피언 음악에 미치는 니가 챔피언 챔피언</t>
-  </si>
-  <si>
-    <t>그녀는 너무 예뻤어 하늘에서 온 천사였어 그녀는 난 사랑했어 우리들은 행복했어 그런 그녀 날 떠났고 나는 혼자 남겨졌고 그녈 잊어 보겠다고 애썼지만 그녀는 너무 예뻤다 그래서 더 슬펐다 하늘에 별은 빛났다 나는 울었다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">나란히 앉은 자동ㅇ차 속에선 음악도 흐르지 않아 늘 잡고 있던 네 왼손으로 너 입술만 뜯고 있어 네가 할 말 알아, 그 말만은 말아 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">아무 말 없이 내게서 커져만 가는 게 아무래도 이대론 안 되겠어 어쩌다 내가 이렇게 </t>
+    <t>연구진은 사원의 원숭이가 관광객이 가지고 있는 물건의 가치를 매겨 자신의 이익을 극대화하는 데도 능숙하다는 사실을 확인했다. 연구진은 사원 내 원숭이와 관광객 간의 행동패턴을 분석하기 위해 반년동안 관찰을 했다. 그 결과 원숭이들은 관광객이 크게 신경 쓰지 않는 물건보다는, 음식으로 교환할 가능성이 높은 귀중품을 먼저 강탈하는 경향이 강하다는 것을 확인했다. 원숭이 도둑이 물건을 강탈한 뒤 관광객 또는 사원 직원과 물건을 사이에 둔 협상에 걸리는 시간은 평균 17분이 걸렸다. 가치가 낮은 품목일수록 관광객과 원숭이 사이에 물물교환에 걸리는 시간을 더 짧았다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +46,30 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,10 +107,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -415,29 +437,78 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
